--- a/Excel_Files/Dynamic_Range/1_cm/784_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1_cm/784_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>125.676</v>
+        <v>3.147</v>
       </c>
       <c r="D2">
-        <v>180.684</v>
+        <v>2.894</v>
       </c>
       <c r="E2">
-        <v>370.466</v>
+        <v>3.851</v>
       </c>
       <c r="F2">
-        <v>612.845</v>
+        <v>4.377</v>
       </c>
       <c r="G2">
-        <v>247.291</v>
+        <v>3.842</v>
       </c>
       <c r="H2">
-        <v>696.385</v>
+        <v>4.487</v>
       </c>
       <c r="I2">
-        <v>251.801</v>
+        <v>3.116</v>
       </c>
       <c r="J2">
-        <v>365.319</v>
+        <v>3.365</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>35.702</v>
+        <v>2.338</v>
       </c>
       <c r="D3">
-        <v>81.68000000000001</v>
+        <v>2.225</v>
       </c>
       <c r="E3">
-        <v>65.72499999999999</v>
+        <v>2.391</v>
       </c>
       <c r="F3">
-        <v>88.419</v>
+        <v>2.772</v>
       </c>
       <c r="G3">
-        <v>94.072</v>
+        <v>2.928</v>
       </c>
       <c r="H3">
-        <v>108.833</v>
+        <v>2.777</v>
       </c>
       <c r="I3">
-        <v>66.02200000000001</v>
+        <v>2.546</v>
       </c>
       <c r="J3">
-        <v>66.982</v>
+        <v>2.823</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>15.044</v>
+        <v>1.889</v>
       </c>
       <c r="D4">
-        <v>22.59</v>
+        <v>1.815</v>
       </c>
       <c r="E4">
-        <v>22.311</v>
+        <v>1.871</v>
       </c>
       <c r="F4">
-        <v>17.908</v>
+        <v>2.051</v>
       </c>
       <c r="G4">
-        <v>20.938</v>
+        <v>2.162</v>
       </c>
       <c r="H4">
-        <v>25.874</v>
+        <v>2.071</v>
       </c>
       <c r="I4">
-        <v>24.62</v>
+        <v>2.106</v>
       </c>
       <c r="J4">
-        <v>11.736</v>
+        <v>1.939</v>
       </c>
     </row>
   </sheetData>
